--- a/matlab_attempt/Excel problems/Arrays2 questions.xlsx
+++ b/matlab_attempt/Excel problems/Arrays2 questions.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{75F82D5A-BD6F-4DCD-B98D-6CA43D4F0FA8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6401AE31-8553-4F22-88A9-2B8C4C427CC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="3" xr2:uid="{36AC9E5E-37B1-4621-9112-0A7D41977D5C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="5" xr2:uid="{36AC9E5E-37B1-4621-9112-0A7D41977D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="CG6.1.1" sheetId="1" r:id="rId1"/>
     <sheet name="CG6.1.2" sheetId="2" r:id="rId2"/>
     <sheet name="CG6.1.3" sheetId="4" r:id="rId3"/>
     <sheet name="CG6.1.4" sheetId="5" r:id="rId4"/>
-    <sheet name="Doesn't work" sheetId="3" r:id="rId5"/>
+    <sheet name="CG6.1.5" sheetId="6" r:id="rId5"/>
+    <sheet name="CG6.1.6" sheetId="7" r:id="rId6"/>
+    <sheet name="Doesn't work" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4047" uniqueCount="1021">
   <si>
     <t>questionText</t>
   </si>
@@ -2298,9 +2300,6 @@
     <t>if ~IS_CURLY, explain = 'In the last line, $CC{IND}/$ will return the contents of this cell, which is a ANSx1 array. The full line $length(CC{IND})/$ will return $ANS/$.'; end</t>
   </si>
   <si>
-    <t>if IS_CURLY, description = '1x1 cell arrays named $AA/$ and $BB/$. Inside these cells are numeric arrays with different sizes'; end</t>
-  </si>
-  <si>
     <t>if ~IS_CURLY, description = 'arrays named $AA/$ and $BB/$. There are LEN1 elements in $AA/$ and LEN2 elements in $BB/$'; end</t>
   </si>
   <si>
@@ -2368,29 +2367,67 @@
     <t>if IS_CURLY, explain = 'The cell $CC(IND)/$ contains within it a 1xANS cell array. The statement $CC{IND}/$ will return this cell array, so $length(CC{IND})/$ will return $ANS/$ because this is the length of the cell array.'; end</t>
   </si>
   <si>
-    <t>MATCH_ROW</t>
-  </si>
-  <si>
-    <t>if MATCH_ROW, nRows = randi([2 10],1)+[0 0]; nCols = randsample([2:nRows(1)-1 nRows(1)+1:10],2); end</t>
-  </si>
-  <si>
-    <t>if ~MATCH_ROW, nCols = randi([2 10],1)+[0 0]; nRows = randsample([2:nCols(1)-1 nCols(1)+1:10],2); end</t>
-  </si>
-  <si>
-    <t>nRows(1)</t>
-  </si>
-  <si>
-    <t>nRows(2)</t>
-  </si>
-  <si>
-    <t>nCols(1)</t>
-  </si>
-  <si>
-    <t>nCols(2)</t>
+    <t>cell14</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>DIMS</t>
+  </si>
+  <si>
+    <t>dims</t>
+  </si>
+  <si>
+    <t>[answer,explanation,problem_values] = cell14();</t>
+  </si>
+  <si>
+    <t>problem_values{1}(1)</t>
+  </si>
+  <si>
+    <t>problem_values{1}(3)</t>
+  </si>
+  <si>
+    <t>problem_values{1}(2)</t>
+  </si>
+  <si>
+    <t>problem_values{3}(1)</t>
+  </si>
+  <si>
+    <t>problem_values{3}(2)</t>
+  </si>
+  <si>
+    <t>problem_values{5}</t>
+  </si>
+  <si>
+    <t>if 'DELIM'==',', location = 'side by side'; dims = 'rows'; else, location = 'one on top of the other'; dims='columns'; end</t>
+  </si>
+  <si>
+    <t>NCOL1</t>
+  </si>
+  <si>
+    <t>NCOL2</t>
+  </si>
+  <si>
+    <t>NROW1</t>
+  </si>
+  <si>
+    <t>NROW2</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You can join cell arrays together with square brackets in the same way you can join numeric arrays. The same restrictions apply, meaning the arrays must have matching dimensions. The statement $[AADELIM BB]/$ attempts to concatenate the two cell arrays LOCATION since the $DELIM/$ delimiter is used. Therefore, the two cell arrays must have the same number of DIMS.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+EXPLAIN
+&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;
-You have two cell arrays named $AA/$ and $BB/$. $AA/$ has RR1 rows and CC1 columns, while $BB/$ has RR2 rows and CC2 columns. These two cell arrays are concatenated with the statment
+You have two cell arrays named $AA/$ and $BB/$. $AA/$ has NROW1 rows and NCOL1 columns, while $BB/$ has NROW2 rows and NCOL2 columns. You attempt to concatenate the two cell arrays with the statement
 &lt;/p&gt;
 &lt;p&gt;
 $$CC = [AADELIM BB];/$$
@@ -2401,29 +2438,1235 @@
 </t>
   </si>
   <si>
-    <t>IS_ERROR</t>
-  </si>
-  <si>
-    <t>if MATCH_ROW, if 'DELIM'==',', sizeC = [RR1, CC1+CC2]; answer = sizeC(ASK_IND); end, end</t>
-  </si>
-  <si>
-    <t>(MATCH_ROW &amp; 'DELIM'==';') | (~MATCH_ROW &amp; 'DELIM'==',')</t>
-  </si>
-  <si>
-    <t>if IS_ERROR, answer = exp(1); end</t>
-  </si>
-  <si>
-    <t>if ~MATCH_ROW, if 'DELIM'==';', sizeC = [RR1+RR2, CC1]; answer = sizeC(ASK_IND); end, end</t>
+    <t xml:space="preserve">&lt;p&gt;
+You have two cell arrays named $AA/$ and $BB/$. $AA/$ has NROW1 rows and NCOL1 columns, while $BB/$ has NROW2 rows and NCOL2 columns. You attempt to concatenate the two cell arrays with the statement
+&lt;/p&gt;
+&lt;p&gt;
+$$CC = {AADELIM BB};/$$
+&lt;/p&gt;
+&lt;p&gt;
+How many ASK_WORD does $CC/$ have?
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>SIZE_STR</t>
+  </si>
+  <si>
+    <t>problem_values{6}</t>
+  </si>
+  <si>
+    <t>cell15</t>
+  </si>
+  <si>
+    <t>[answer,explanation,problem_values] = cell15();</t>
   </si>
   <si>
     <t>&lt;p&gt;
-The statement $[AADELIM BB]/$ attempts to concatenate
+The statement $CC = {AADELIM BB}/$ does not concatenate the cell arrays together. It instead creates a new cell array with two elements. More specifically, $CC/$ has SIZE_STR because the $DELIM/$ delimiter is used. The statement ${AADELIM BB}/$ is similar to something like ${-15DELIM 'hello'}/$. The only difference is that the two cells in $CC/$ do not contain simple data like integers or strings but instead contain cell arrays themselves. $CC{1}/$ has the cell array $AA/$ and $CC{2}/$ has the cell array $BB/$. 
 &lt;/p&gt;&lt;br/&gt;
 &lt;p&gt;
 EXPLAIN
 &lt;/p&gt;&lt;br/&gt;
 &lt;p&gt;
-Therefore, the correct answer is $ANS/$.
+If you wish to concatenate cell arrays, you must use the same notation as  with numeric arrays, i.e. square brackets. For example, the statement $[AADELIM BB]/$ attempts to concatenate the two cell arrays LOCATION. However, the same restrictions apply to both cell arrays and numeric arrays, meaning the two arrays must have matching dimensions. To join them LOCATION, $AA/$ and $BB/$ must have the same number of DIMS.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Which statements below would store the string $'STRING1'/$ into the ORD1 cell of a cell array named $AA/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>randsample('ABCDEFGHPQRSTUVWXYZ',1);</t>
+  </si>
+  <si>
+    <t>cell5.1</t>
+  </si>
+  <si>
+    <t>STRING1</t>
+  </si>
+  <si>
+    <t>'$AA(IND) = {''STRING1''}/$'</t>
+  </si>
+  <si>
+    <t>randsample('a':'z',randi([5 7],1))</t>
+  </si>
+  <si>
+    <t>'$AA{IND} = ''STRING1''/$'</t>
+  </si>
+  <si>
+    <t>'$AA{IND} = STRING1/$'</t>
+  </si>
+  <si>
+    <t>'$AA(IND) = {STRING1}/$'</t>
+  </si>
+  <si>
+    <t>'$AA(IND) = ''STRING1''/$'</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+There are two correct ways to store  the string $'STRING1'/$ into the ORD1 cell of a cell array named $AA/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The first way is to use curly braces around the index of $AA/$ to store the string, e.g. $AA{IND} = 'STRING1'/$. You can interpret this statement as, "Store the string $'STRING1'/$ into the contents of the ORD1 cell of $AA/$".
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The second way is to put the string into a cell with curly braces, e.g. $AA(IND) = {'STRING1'}/$. You can interpret this statement as, "Store a 1x1 cell containing $'STRING1'/$ as the ORD1 cell of $AA/$".
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The statement $AA(IND) = 'STRING1'/$ is incorrect because $'STRING1'/$ is not in a cell. This line will produce an error since $AA(IND)/$ implies that Matlab is expecting the right hand side of the equals sign to contain a cell.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cell16</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You have a 2D cell array containing strings of various lengths. Write a Matlab statement that would return the ORD1 character from the string stored in row RR1, column CC1 of a cell array named $AA/$. 
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>INDEXES</t>
+  </si>
+  <si>
+    <t>randsample(1:10,3)</t>
+  </si>
+  <si>
+    <t>IND3</t>
+  </si>
+  <si>
+    <t>extract(INDEXES,1)</t>
+  </si>
+  <si>
+    <t>extract(INDEXES,2)</t>
+  </si>
+  <si>
+    <t>extract(INDEXES,3)</t>
+  </si>
+  <si>
+    <t>ordinal_string(IND1)</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>'AA\s*\{\s*RR1\s*,\s*CC1\s*\}\s*\((\s*1\s*,)?\s*IND1\s*\)\s*;?'</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+One way to solve this problem is to first store the string in a variable $str = AA{RR1,CC1}/$ and then return the character with $str(IND1)/$. However, you can combine these indexing calls together.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+To do so, add the indexing notation of the string $(IND1)/$ to the end of the indexing of the cell array:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$AA{RR1,CC1}(IND1)/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This will return the ORD1 character from the string stored in row RR1, column CC1 of $AA/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cell17</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You have a 2D cell array named $AA/$ that contains strings of various lengths. Which Matlab statement would return the ORD1 character from the string stored in row RR1, column CC1. 
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>'None of these'</t>
+  </si>
+  <si>
+    <t>'$AA{RR1,CC1}(IND1)/$'</t>
+  </si>
+  <si>
+    <t>'$AA{RR1,CC1}{IND1}/$'</t>
+  </si>
+  <si>
+    <t>'$AA(RR1,CC1){IND1}/$'</t>
+  </si>
+  <si>
+    <t>'$AA(RR1,CC1)(IND1)/$'</t>
+  </si>
+  <si>
+    <t>words{3}</t>
+  </si>
+  <si>
+    <t>words{4}</t>
+  </si>
+  <si>
+    <t>words{5}</t>
+  </si>
+  <si>
+    <t>STR3</t>
+  </si>
+  <si>
+    <t>STR4</t>
+  </si>
+  <si>
+    <t>STR5</t>
+  </si>
+  <si>
+    <t>length(words{IND})</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while true, words = sample_random_words(5); lengths = cellfun(@length,words); if all(lengths&gt;4), break, end, end </t>
+  </si>
+  <si>
+    <t>randi([4 LEN],1)</t>
+  </si>
+  <si>
+    <t>COLON</t>
+  </si>
+  <si>
+    <t>'START:END'</t>
+  </si>
+  <si>
+    <t>words{IND}(COLON)</t>
+  </si>
+  <si>
+    <t>ORD3</t>
+  </si>
+  <si>
+    <t>STR_REF</t>
+  </si>
+  <si>
+    <t>words{IND}</t>
+  </si>
+  <si>
+    <t>ordinal_string(START)</t>
+  </si>
+  <si>
+    <t>ordinal_string(END)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+The statment $myArray{IND}(COLON)/$ combines the indexing calls to the cell and the contents within the cell into a single statement. The first part $myArray{IND}/$ returns the contents of the ORD1 cell, and the second part $(COLON)/$ indexes directly into the contents.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$myArray{IND}/$ will return the string $'STR_REF'/$. $COLON/$ will return an array of integers from $START/$ to $END/$, so $myArray{IND}(COLON)/$ will return the ORD2 through ORD3 characters in $'STR_REF'/$. This is the substring $'ANS1'/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore, the correct answer is $'ANS1'/$.
+&lt;/p&gt;&lt;br/&gt;
+</t>
+  </si>
+  <si>
+    <t>cell18</t>
+  </si>
+  <si>
+    <t>'''''ANS1'''</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You define a cell array named $myArray/$ with the following line of code
+&lt;/p&gt;
+&lt;p&gt;
+$$myArray = {'STR1', 'STR2', 'STR3', 'STR4', 'STR5'};/$$
+&lt;/p&gt;
+&lt;p&gt;
+What would be returned by the command $myArray{IND}(COLON)/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>problem_values{1}{1}</t>
+  </si>
+  <si>
+    <t>problem_values{1}{5}</t>
+  </si>
+  <si>
+    <t>problem_values{1}{4}</t>
+  </si>
+  <si>
+    <t>problem_values{1}{3}</t>
+  </si>
+  <si>
+    <t>problem_values{1}{2}</t>
+  </si>
+  <si>
+    <t>ASK_DISPLAY</t>
+  </si>
+  <si>
+    <t>problem_values{2}</t>
+  </si>
+  <si>
+    <t>choices{1}</t>
+  </si>
+  <si>
+    <t>choices{2}</t>
+  </si>
+  <si>
+    <t>choices{3}</t>
+  </si>
+  <si>
+    <t>choices{4}</t>
+  </si>
+  <si>
+    <t>choices{5}</t>
+  </si>
+  <si>
+    <t>REF_STR</t>
+  </si>
+  <si>
+    <t>problem_values{5}(1)</t>
+  </si>
+  <si>
+    <t>problem_values{5}(end)</t>
+  </si>
+  <si>
+    <t>ordinal_string(IND3)</t>
+  </si>
+  <si>
+    <t>ordinal_string(IND2)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+It may take some searching, but hopefully you can see that the substring $'ASK_DISPLAY'/$ can be found in the ORD1 through ORD2 characters of the string $'REF_STR'/$, which is the ORD3 string in $myArray/$. One way to return this substring is to first store the string in a variable $str = myArray{IND3}/$ and then return the substring with $str(IND1:IND2)/$. However, you can combine these indexing calls together.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+To do so, add the indexing notation of the string $(IND1:IND2)/$ to the end of the indexing of the cell array:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$myArray{IND3}(IND1:IND2)/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This will return the substring $'ASK_DISPLAY'/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cell19</t>
+  </si>
+  <si>
+    <t>[choices,problem_values] = cell19();</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You define a cell array named $myArray/$ with the following line of code
+&lt;/p&gt;
+&lt;p&gt;
+$$myArray = {'STR1', 'STR2', 'STR3', 'STR4', 'STR5'};/$$
+&lt;/p&gt;
+&lt;p&gt;
+Which command would return the string $'ASK_DISPLAY'/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cell20</t>
+  </si>
+  <si>
+    <t>firstName = {'James','Mary','Elizabeth','Michael','Susan','David'};</t>
+  </si>
+  <si>
+    <t>lastName = {'Smith','Johnson','Williams','Jones','Brown','Davis'};</t>
+  </si>
+  <si>
+    <t>eyeColor = {'amber','blue','brown','hazel','green','gray'};</t>
+  </si>
+  <si>
+    <t>hairColor = {'brown','white','blond','auburn','red','gray'};</t>
+  </si>
+  <si>
+    <t>randi(6,1)</t>
+  </si>
+  <si>
+    <t>myData{IND1}{IND2}</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>myData = {firstName,lastName,eyeColor,hairColor,height};</t>
+  </si>
+  <si>
+    <t>extract({'first name','last name','eye color','hair color','height'},IND1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+The array $myData/$ is a cell array that contains other cell arrays. It has 1 row and 5 columns, and each cell contains another cell array with 1 row and 6 columns.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The command $myData{IND1}{IND2}/$ will first return the contents of $myData{IND1}/$, i.e. the cell array in the ORD1 cell of $myData/$ that contains the CATEGORYs. The second index ${IND2}/$, when placed directly after $myData{IND1}/$, will return the contents of the ORD2 cell from the CATEGORY array, i.e. the string in this position.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore, the full statement $myData{IND1}{IND2}/$ will return the string $'ANS1'/$.
+&lt;/p&gt;&lt;br/&gt;
+</t>
+  </si>
+  <si>
+    <t>BRACKETS1</t>
+  </si>
+  <si>
+    <t>randsample({'{}','()'},1)</t>
+  </si>
+  <si>
+    <t>BRACKETS2</t>
+  </si>
+  <si>
+    <t>OPEN1</t>
+  </si>
+  <si>
+    <t>extract('BRACKETS1',1)</t>
+  </si>
+  <si>
+    <t>extract('BRACKETS1',2)</t>
+  </si>
+  <si>
+    <t>CLOSE1</t>
+  </si>
+  <si>
+    <t>OPEN2</t>
+  </si>
+  <si>
+    <t>CLOSE2</t>
+  </si>
+  <si>
+    <t>extract('BRACKETS2',1)</t>
+  </si>
+  <si>
+    <t>extract('BRACKETS2',2)</t>
+  </si>
+  <si>
+    <t>randsample({'{}','{}','{}','()'},1)</t>
+  </si>
+  <si>
+    <t>randsample([1:IND2-1 IND2+1:6],1)</t>
+  </si>
+  <si>
+    <t>STRING2</t>
+  </si>
+  <si>
+    <t>myData{IND1}{IND3}</t>
+  </si>
+  <si>
+    <t>sprintf('The string $''%s''/$','STRING1')</t>
+  </si>
+  <si>
+    <t>sprintf('A cell containing the string $''%s''/$','STRING1')</t>
+  </si>
+  <si>
+    <t>sprintf('The string $''%s''/$','STRING2')</t>
+  </si>
+  <si>
+    <t>sprintf('A cell containing the string $''%s''/$','STRING2')</t>
+  </si>
+  <si>
+    <t>sprintf('Nothing. This command will produce an error')</t>
+  </si>
+  <si>
+    <t>is_correct{1}</t>
+  </si>
+  <si>
+    <t>is_correct{2}</t>
+  </si>
+  <si>
+    <t>is_correct{3}</t>
+  </si>
+  <si>
+    <t>is_correct{4}</t>
+  </si>
+  <si>
+    <t>is_correct{5}</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>cell21</t>
+  </si>
+  <si>
+    <t>if 'OPEN1'=='(', is_correct = [0 0 0 0 1]; end</t>
+  </si>
+  <si>
+    <t>if 'OPEN1'=='{', if 'OPEN2'=='(', explain = 'This will return the contents of the cell, which is the cell array containing the CATEGORY information.&lt;/p&gt;&lt;br/&gt;&lt;p&gt;The second index $(IND2)/$ is enclosed in parentheses. This will return a cell and not the contents of the cell. Specifically the ORD2 cell has the string $''STRING1''/$, so the correct answer is: "A cell containing the string $''STRING1''/$".'; end, end</t>
+  </si>
+  <si>
+    <t>if 'OPEN1'=='{', if 'OPEN2'=='{', explain =  'This will return the contents of the cell, which is the cell array containing the CATEGORY information.&lt;/p&gt;&lt;br/&gt;&lt;p&gt;The second index ${IND2}/$ is enclosed in curly braces. This will return the contents of the cell. Specifically the ORD2 cell has the string $''STRING1''/$, so the correct answer is: "The string $''STRING1''/$".'; end, end</t>
+  </si>
+  <si>
+    <t>logical = convert_logical(is_correct);</t>
+  </si>
+  <si>
+    <t>logical{1}</t>
+  </si>
+  <si>
+    <t>logical{2}</t>
+  </si>
+  <si>
+    <t>logical{3}</t>
+  </si>
+  <si>
+    <t>logical{4}</t>
+  </si>
+  <si>
+    <t>logical{5}</t>
+  </si>
+  <si>
+    <t>if 'OPEN1'=='(', explain = 'This will cause an error because you need to access the &lt;em&gt;contents&lt;/em&gt; of the cell in order to return the inner cell array. In other word, you need curly braces, e.g. $myData{IND1}OPEN2IND2CLOSE2/$. &lt;/p&gt;&lt;br/&gt;&lt;p&gt;Therefore, the correct answer is "Nothing. This command will produce an error".'; end</t>
+  </si>
+  <si>
+    <t>if 'OPEN1'=='{', if 'OPEN2'=='{', is_correct = [1 0 0 0 0]; else, is_correct = [0 1 0 0 0]; end, end</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The array $myData/$ is a cell array that contains other cell arrays. It has 1 row and 5 columns, and each cell contains another cell array with 1 row and 6 columns. You can use nested indexing to access the interior cell arrays. For example $myData{1}{1}/$ would return the string $'James'/$. It is the string located in the 1st cell in the 1st cell array of $myData/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The command $myDataOPEN1IND1CLOSE1OPEN2IND2CLOSE2/$ has $OPEN1CLOSE1/$ symbols around the first index $IND1/$. EXPLAIN&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cell22</t>
+  </si>
+  <si>
+    <t>IND4</t>
+  </si>
+  <si>
+    <t>extract('STRING1',IND3:IND4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+The array $myData/$ is a cell array that contains other cell arrays. It has 1 row and 5 columns, and each cell contains another cell array with 1 row and 6 columns.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The command $myData{IND1}{IND2}(IND3:IND4)/$ will first return the contents of $myData{IND1}/$, i.e. the cell array in the ORD1 cell of $myData/$ that contains the CATEGORYs. The second index ${IND2}/$, when placed directly after $myData{IND1}/$, will return the contents of the ORD2 cell from the CATEGORY array, i.e. the string $'STRING1'/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Lastly, the index $(IND3:IND4)/$ will return the ORD3 through ORD4 characters of the string $'STRING1'/$. Therefore, the full statement $myData{IND1}{IND2}(IND3:IND4)/$ will return the string $'ANS1'/$.
+&lt;/p&gt;&lt;br/&gt;
+</t>
+  </si>
+  <si>
+    <t>ORD4</t>
+  </si>
+  <si>
+    <t>ordinal_string(IND4)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code.
+&lt;/p&gt;
+&lt;p&gt;
+$$firstName = {'James','Mary','Elizabeth','Michael','Susan','David'};
+lastName = {'Smith','Johnson','Williams','Jones','Brown','Davis'};
+eyeColor = {'amber','blue','brown','hazel','green','gray'};
+hairColor = {'brown','white','blond','auburn','red','gray'};
+height = {'172cm','158cm','167cm','169cm','165cm','180cm'};
+myData = {firstName,lastName,eyeColor,hairColor,height};/$$
+&lt;/p&gt;
+&lt;p&gt;
+What is returned by the command $myData{IND1}{IND2}/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>height = {'172cm','158cm','167cm','169cm','165cm','180cm'};</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code.
+&lt;/p&gt;
+&lt;p&gt;
+$$firstName = {'James','Mary','Elizabeth','Michael','Susan','David'};
+lastName = {'Smith','Johnson','Williams','Jones','Brown','Davis'};
+eyeColor = {'amber','blue','brown','hazel','green','gray'};
+hairColor = {'brown','white','blond','auburn','red','gray'};
+height = {'172cm','158cm','167cm','169cm','165cm','180cm'};
+myData = {firstName,lastName,eyeColor,hairColor,height};/$$
+&lt;/p&gt;
+&lt;p&gt;
+What is returned by the command $myDataOPEN1IND1CLOSE1OPEN2IND2CLOSE2/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code.
+&lt;/p&gt;
+&lt;p&gt;
+$$firstName = {'James','Mary','Elizabeth','Michael','Susan','David'};
+lastName = {'Smith','Johnson','Williams','Jones','Brown','Davis'};
+eyeColor = {'amber','blue','brown','hazel','green','gray'};
+hairColor = {'brown','white','blond','auburn','red','gray'};
+height = {'172cm','158cm','167cm','169cm','165cm','180cm'};
+myData = {firstName,lastName,eyeColor,hairColor,height};/$$
+&lt;/p&gt;
+&lt;p&gt;
+What is returned by the command $myData{IND1}{IND2}(IND3:IND4)/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cell23</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code.
+&lt;/p&gt;
+&lt;p&gt;
+$$firstName = {'James','Mary','Elizabeth','Michael','Susan','David'};
+lastName = {'Smith','Johnson','Williams','Jones','Brown','Davis'};
+eyeColor = {'amber','blue','brown','hazel','green','gray'};
+hairColor = {'brown','white','blond','auburn','red','gray'};
+height = {'172cm','158cm','167cm','169cm','165cm','180cm'};
+myData = {firstName,lastName,eyeColor,hairColor,height};/$$
+&lt;/p&gt;
+&lt;p&gt;
+What is returned by the command $myData{IND1}OPEN1IND2CLOSE1(IND3:IND4)/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>IND5</t>
+  </si>
+  <si>
+    <t>randi([2 length('STRING1')],1)</t>
+  </si>
+  <si>
+    <t>randsample([2:IND4-1 IND4+1:length('STRING1')],1)</t>
+  </si>
+  <si>
+    <t>STRING3</t>
+  </si>
+  <si>
+    <t>myData{IND1}{IND2}(IND3:IND5)</t>
+  </si>
+  <si>
+    <t>myData{IND1}{IND2}(IND3:IND4)</t>
+  </si>
+  <si>
+    <t>sprintf('The string $''%s''/$','STRING3')</t>
+  </si>
+  <si>
+    <t>sprintf('A cell containing the string $''%s''/$','STRING3')</t>
+  </si>
+  <si>
+    <t>if 'OPEN1'=='(', is_correct = convert_logical([0 0 0 0 1]);, else, is_correct = convert_logical([1 0 0 0 0]); end</t>
+  </si>
+  <si>
+    <t>if 'OPEN1'=='(', explain = 'This will cause an error because you need to access the &lt;em&gt;contents&lt;/em&gt; of the cell in order to return the string. In other word, you need curly braces, e.g. $myData{IND1}{IND2}/$. &lt;/p&gt;&lt;br/&gt;&lt;p&gt;Therefore, the correct answer is "Nothing. This command will produce an error".'; end</t>
+  </si>
+  <si>
+    <t>if 'OPEN1'=='{', explain = 'This will return the contents of the cell, which is the string $''STRING1''/$.&lt;/p&gt;&lt;br/&gt;&lt;p&gt;Lastly, the index $(IND3:IND4)/$ will return the ORD3 through ORD4 characters of the string $''STRING1''/$. Therefore, the full statement $myData{IND1}{IND2}(IND3:IND4)/$ will return the string $''STRING2''/$.'; end</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The array $myData/$ is a cell array that contains other cell arrays. It has 1 row and 5 columns, and each cell contains another cell array with 1 row and 6 columns. You can use nested indexing to access the interior cell arrays. For example $myData{1}{1}/$ would return the string $'James'/$. It is the string located in the 1st cell in the 1st cell array of $myData/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The command $myData{IND1}OPEN1IND2CLOSE1(IND3:IND4)/$ will first return the contents of $myData{IND1}/$, i.e. the cell array in the ORD1 cell of $myData/$ that contains the CATEGORYs. The second index $OPEN1IND2CLOSE1/$ has $OPEN1CLOSE1/$ symbols around the index. EXPLAIN
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>load('Data\random_words_with_repeats.mat','myArray')</t>
+  </si>
+  <si>
+    <t>words = unique(myArray); choice = words{randi(length(words),1)};</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>sum(strcmp(myArray,choice))</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+There are several ways you can count the number of times $'CHOICE'/$ appears in $myArray/$. The $strcmp/$ function will compare two strings and return $true/$ if they are the same, e.g. $strcmp('hello','hello')/$ will return $1/$, but $strcmp('hello','jello')/$ will return $0/$. You could use this function in a loop:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$count = 0;
+for i = 1:length(myArray)
+    if strcmp(myArray{i},'CHOICE')
+        count = count + 1;
+    end
+end/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This would increment a variable called $count/$ each time the string $'CHOICE'/$ is found in $myArray/$. However, the function $strcmp/$ also works with cell arrays in recent versions of Matlab. The command $strcmp(myArray,'CHOICE')/$ will return a logical array the same size as $myArray/$ with $1/$ at the locations where $'CHOICE'/$ is found. You can find the count by adding these up:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$count = sum(strcmp(myArray,'CHOICE'));/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Regardless of the method, you should find there are $ANS/$ instances of the string $'CHOICE'/$ in $myArray/$. Therefore, the answer is $ANS/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cell24</t>
+  </si>
+  <si>
+    <t>cell25</t>
+  </si>
+  <si>
+    <t>LETTER</t>
+  </si>
+  <si>
+    <t>randsample('a':'z',1)</t>
+  </si>
+  <si>
+    <t>sum(strncmp(myArray,'LETTER',1))</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+There are several ways you can count the number words that begin with the letter $'LETTER'/$. Since $'LETTER'/$ is a single character, you can use $==/$ with a comparison string, e.g. $myArray{1}(1)=='LETTER'/$ will check if the first letter of the first word is $'LETTER'/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Alternatively, the $strncmp/$ function will compare the first $n/$ characters in two strings, e.g. $strncmp('hello','h',1)/$ will return $1/$, but $strncmp('hello','e',1)/$ will return $0/$. There is also the $startsWith/$ function that does something similar. You could use any of these methods in a loop:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$count = 0;
+for i = 1:length(myArray)
+    if myArray{i}(1)=='LETTER'
+        count = count + 1;
+    end
+end/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This would increment a variable called $count/$ each time a word starts with $'LETTER'/$. However, the benefit to functions like $strncmp/$ and $startsWith/$ is that they also work with cell arrays. The command $strncmp(myArray,'LETTER',1)/$ will return a logical array the same size as $myArray/$ with $1/$ at the locations where the word starts with $'LETTER'/$. You can find the count by adding these locations up:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$count = sum(strncmp(myArray,'LETTER',1));/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Regardless of the method, you should find there are $ANS/$ words that begin with $'LETTER'/$ in $myArray/$. Therefore, the answer is $ANS/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>count = 0; for i=1:length(myArray), if myArray{i}(IND)=='LETTER', count = count+1; end, end</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>load('Data\random_wordsIND.mat','myArray')</t>
+  </si>
+  <si>
+    <t>FILEID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+Download &lt;a href="/static/random_wordsFILEID.mat" target="_blank"&gt;this file&lt;/a&gt; and load it into Matlab. If you are using Matlab Online, you will need to upload the file before loading it. There should now be a variable named $myArray/$ in the workspace. $myArray/$ is a large cell array and each cell contains a string with a single word.
+&lt;/p&gt;
+&lt;p&gt;
+How words in the array have $'LETTER'/$ as the ORD letter?
+&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>load('Data\random_wordsFILEID.mat','myArray')</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+There are a couple of ways you can count the number words that have the letter $'LETTER'/$ as the ORD letter, but perhaps the easiest way is inside a loop. Since $'LETTER'/$ is a single character, you can use $==/$ with a comparison string, e.g. $myArray{1}(ORD)=='LETTER'/$ will check if the ORD letter of the first word is $'LETTER'/$. You can then compare each word inside a loop:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$count = 0;
+for i = 1:length(myArray)
+    if myArray{i}(IND)=='LETTER'
+        count = count + 1;
+    end
+end/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This would increment a variable called $count/$ each time a word has $'LETTER'/$ as the ORD letter. You should find there are $ANS/$ words fit this criteria. Therefore, the answer is $ANS/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cell26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+Download &lt;a href="/static/random_words_with_repeats.mat" target="_blank"&gt;this file&lt;/a&gt; and load it into Matlab. If you are using Matlab Online, you will need to upload the file before loading it. There should now be a variable named $myArray/$ in the workspace. $myArray/$ is a large cell array and each cell contains a string with a single word. Each word is repeated one or more times in the array.
+&lt;/p&gt;
+&lt;p&gt;
+How many times does the word $'CHOICE'/$ appear in the array? Hint: lookup the $strcmp/$ function.
+&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+Download &lt;a href="/static/random_wordsIND.mat" target="_blank"&gt;this file&lt;/a&gt; and load it into Matlab. If you are using Matlab Online, you will need to upload the file before loading it. There should now be a variable named $myArray/$ in the workspace. $myArray/$ is a large cell array and each cell contains a string with a single word.
+&lt;/p&gt;
+&lt;p&gt;
+How words in the array start with the letter $'LETTER'/$? Hint: lookup the $strncmp/$ function.
+&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>C3, A25</t>
+  </si>
+  <si>
+    <t>cell8.1</t>
+  </si>
+  <si>
+    <t>array_name</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+To declare a cell array, you must use curly braces ${}/$. The contents can be anything: integers, strings, other arrays, etc. You can even declare an empty cell array with $AA = {}/$, but the contents must be enclosed with the curly braces. Therefore, the correct answer(s) are:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+EXPLAIN
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[answers,correctness,array_name,explanation] = cell8_1()</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Which line(s) below would successfully create a cell array named $AA/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+True or False: The line of code below successfully creates a cell array named $AA/$.
+&lt;/p&gt;
+&lt;p&gt;
+DISPLAY
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cell8.2</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+To declare a cell array, you must use curly braces ${}/$. The contents can be anything: integers, strings, other arrays, etc. You can even declare an empty cell array with $AA = {}/$, but the contents must be enclosed with the curly braces. 
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+EXPLAIN
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>[display,correctness,array_name,explanation] = cell8_2();</t>
+  </si>
+  <si>
+    <t>C4, C1</t>
+  </si>
+  <si>
+    <t>if IS_CURLY, description = '1x1 cell arrays named $AA/$ and $BB/$. Inside these cells is a single numeric array'; end</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>cell27</t>
+  </si>
+  <si>
+    <t>randsample('ABCDEFGHKMNPQRTUVWXYZ',1);</t>
+  </si>
+  <si>
+    <t>COMPARE_IND</t>
+  </si>
+  <si>
+    <t>COMPARE_SYM</t>
+  </si>
+  <si>
+    <t>COMPARE_PHRASE</t>
+  </si>
+  <si>
+    <t>extract({'less than','greater than','less than or equal to','greater than or equal to'},COMPARE_IND)</t>
+  </si>
+  <si>
+    <t>extract({'&lt;','&gt;','&lt;=','&gt;='},COMPARE_IND)</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>CELL_IND</t>
+  </si>
+  <si>
+    <t>ordinal_string(CELL_IND)</t>
+  </si>
+  <si>
+    <t>OTHER_SYM</t>
+  </si>
+  <si>
+    <t>extract({'&gt;=','&lt;=','&gt;','&lt;'},COMPARE_IND)</t>
+  </si>
+  <si>
+    <t>'AA\s*\{\s*CELL_IND\s*\s*\}\s*COMPARE_SYM\s*VALUE\s*;?'</t>
+  </si>
+  <si>
+    <t>'~\s*\(\s*AA\s*\{\s*CELL_IND\s*\s*\}\s*OTHER_SYM\s*VALUE\s*\)\s*;?'</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Logical expressions can be written with cell arrays the same way they are with normal arrays. Since this question asks about the array in the ORD cell, you first need to return the contents with $AA{CELL_IND}/$. This will return the array, so this can be followed by $COMPARE_SYM VALUE/$. This will return a logical array with true values at the locations in the array that are COMPARE_PHRASE $VALUE/$. Putting these together creates the correct answer: 
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$AA{CELL_IND} COMPARE_SYM VALUE/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This problem will also accept $~(AA{CELL_IND} OTHER_SYM VALUE)/$, since this will also return the correct logical array.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Let $AA/$ be a cell array that contains a numeric array in each cell. Say you wanted to find the locations of the array contained in the ORD cell of $AA/$ that are COMPARE_PHRASE $VALUE/$. Write the Matlab statement that would return a logical array with true values at these locations and false everywhere else.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Let $AA/$ be a cell array that contains a string in each cell. Say you wanted to find the locations of the string contained in the ORD cell of $AA/$ that have the letter $'LETTER'/$. Write the Matlab statement that would return a logical array with true values at these locations and false everywhere else. Use a logical operator like $==/$ and not a function like $strcmp/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>'AA\s*\{\s*CELL_IND\s*\s*\}\s*==\s*''LETTER''\s*;?'</t>
+  </si>
+  <si>
+    <t>'~\s*\(\s*AA\s*\{\s*CELL_IND\s*\s*\}\s*~=\s*''LETTER''\s*;?\)\s*;?'</t>
+  </si>
+  <si>
+    <t>cell28</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Logical expressions can be written with cell arrays the same way they are with normal arrays. Since this question asks about the string in the ORD cell, you first need to return the contents with $AA{CELL_IND}/$. This will return the string, so this can be followed by $== 'LETTER'/$. This will return a logical array with true values at the locations in the string that have the letter $'LETTER'/$. Putting these together creates the correct answer: 
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$AA{CELL_IND} == 'LETTER'/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This problem will also accept $~(AA{CELL_IND} ~= 'LETTER')/$, since this will also return the correct logical array.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cell29</t>
+  </si>
+  <si>
+    <t>VARNAME</t>
+  </si>
+  <si>
+    <t>randsample({'firstName','lastName','eyeColor','hairColor','height'},1)</t>
+  </si>
+  <si>
+    <t>randi(length(VARNAME),1)</t>
+  </si>
+  <si>
+    <t>randsample(VARNAME{IND1},1)</t>
+  </si>
+  <si>
+    <t>VARNAME{IND1}(VARNAME{IND1}~='LETTER')</t>
+  </si>
+  <si>
+    <t>LOGICAL</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>VARNAME{IND1}</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The inner expression $VARNAME{IND1}~='LETTER'/$ will return a logical array with true values where the string $'STRING'/$ is NOT the letter $'LETTER'/$. This is the logical array $LOGICAL/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This logical array is used to index back into $VARNAME{IND1}/$, i.e. logical indexing. This logical indexing will return just the characters in $'STRING'/$ that aren't $'LETTER'/$. Therefore, the returned string is $'ANS1'/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code.
+&lt;/p&gt;
+&lt;p&gt;
+$$firstName = {'James','Mary','Elizabeth','Michael','Susan','David'};
+lastName = {'Smith','Johnson','Williams','Jones','Brown','Davis'};
+eyeColor = {'amber','blue','brown','hazel','green','gray'};
+hairColor = {'brown','white','blond','auburn','red','gray'};
+height = {'172cm','158cm','167cm','169cm','165cm','180cm'};/$$
+&lt;/p&gt;
+&lt;p&gt;
+What is returned by the command $VARNAME{IND1}(VARNAME{IND1}~='LETTER')/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>double(VARNAME{IND1}~='LETTER')</t>
+  </si>
+  <si>
+    <t>VARNAME1</t>
+  </si>
+  <si>
+    <t>VARNAME2</t>
+  </si>
+  <si>
+    <t>cell30</t>
+  </si>
+  <si>
+    <t>VARNAME1{IND1}</t>
+  </si>
+  <si>
+    <t>names = {'firstName','lastName','eyeColor','hairColor','height'};</t>
+  </si>
+  <si>
+    <t>names{var_ind(1)}</t>
+  </si>
+  <si>
+    <t>names{var_ind(2)}</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code.
+&lt;/p&gt;
+&lt;p&gt;
+$$firstName = {'James','Mary','Elizabeth','Michael','Susan','David'};
+lastName = {'Smith','Johnson','Williams','Jones','Brown','Davis'};
+eyeColor = {'amber','blue','brown','hazel','green','gray'};
+hairColor = {'brown','white','blond','auburn','red','gray'};
+height = {'172cm','158cm','167cm','169cm','165cm','180cm'};/$$
+&lt;/p&gt;
+&lt;p&gt;
+What is returned by the command $VARNAME1{IND1}(VARNAME2{IND2}~='LETTER')/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while true, var_ind = randsample(5,2); cell_ind = randsample(6,2); if length(myData{var_ind(1)}{cell_ind(1)}) == length(myData{var_ind(2)}{cell_ind(2)}), break, end, end </t>
+  </si>
+  <si>
+    <t>cell_ind(2)</t>
+  </si>
+  <si>
+    <t>cell_ind(1)</t>
+  </si>
+  <si>
+    <t>length(VARNAME1{IND1})</t>
+  </si>
+  <si>
+    <t>length(VARNAME2{IND2})</t>
+  </si>
+  <si>
+    <t>randsample(VARNAME2{IND2},1)</t>
+  </si>
+  <si>
+    <t>VARNAME2{IND2}</t>
+  </si>
+  <si>
+    <t>double(VARNAME2{IND2}~='LETTER')</t>
+  </si>
+  <si>
+    <t>VARNAME1{IND1}(VARNAME2{IND2}~='LETTER')</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The inner expression $VARNAME2{IND2}~='LETTER'/$ will return a logical array with true values where the string $'STRING2'/$ is NOT the letter $'LETTER'/$. This is the logical array $LOGICAL/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This logical array is used to index back into $VARNAME1{IND1}/$ in the full expression $VARNAME1{IND1}(VARNAME2{IND2}~='LETTER')/$. The variable $VARNAME1{IND1}/$ is the string $'STRING1'/$. Since both $'STRING2'/$ and $'STRING1'/$ are the same length, you don't have to worry about potential out-of-bounds errors. The logical indexing will return just the characters in $'STRING1'/$ where there are true values in the logical array from before $LOGICAL/$. Therefore, the returned string is $'ANS1'/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cell31</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Given a cell array named $myArray/$ that contains strings, what command would return the all the characters in the ORD string that ARENOT the letter $'LETTER'/$? 
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>ARENOT</t>
+  </si>
+  <si>
+    <t>SYMBOL</t>
+  </si>
+  <si>
+    <t>[correct,incorrect,problem_values,explanation] = cell31();</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+This question asks for the logical indexing statement that would return all the characters that ARENOT $'LETTER'/$ from the string in the ORD cell of $myArray/$. The correct answer will have the index $IND/$ inside of the curly braces to return the string inside the cell and not the cell itself. It will also have the logical symbol $SYMBOL/$ since you need the characters that ARENOT $'LETTER'/$. The correct statement is:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$myArray{IND}(myArray{IND} SYMBOL 'LETTER')/$$
+&lt;/p&gt;
+EXPLAIN</t>
+  </si>
+  <si>
+    <t>cell32</t>
+  </si>
+  <si>
+    <t>LESSTHAN</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+This question asks for the logical indexing statement that would return all the values LESSTHAN $VALUE/$ from the array in the ORD cell of $myArray/$. The correct answer will have the index $IND/$ inside of the curly braces to return the array inside the cell and not the cell itself. It will also have the logical symbol $SYMBOL/$ since you need the values that are LESSTHAN $VALUE/$. The correct statement is:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$myArray{IND}(myArray{IND} SYMBOL VALUE)/$$
+&lt;/p&gt;
+EXPLAIN</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You have a cell array named $myArray/$, where each cell contains a numeric array. Which command would return the values in the ORD array that are LESSTHAN $VALUE/$? 
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[correct,incorrect,problem_values,explanation] = cell32();</t>
+  </si>
+  <si>
+    <t>randsample(1:RR,randi(RR-1,1))</t>
+  </si>
+  <si>
+    <t>randsample(1:CC,randi(CC-1,1))</t>
+  </si>
+  <si>
+    <t>row_vec = [VAL1]; col_vec = [VAL2];</t>
+  </si>
+  <si>
+    <t>NUM1*NUM2</t>
+  </si>
+  <si>
+    <t>cell33</t>
+  </si>
+  <si>
+    <t>Given a cell array named $AA/$ with RR rows and CC columns, how many cells are returned by the command $AA(IND1,IND2)?/$?</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The command $AA(IND1,IND2)/$ uses arrays as indices, which allows you to extract multiple cells from $AA/$ at the same time. In this case, the first index is $IND1/$, which refers to the ORD1 row(s), while the second index $IND2/$ refers to the ORD2 column(s).
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Matlab will return a cell for each possible pairing of a row and column in the indices. For example, the first pairing is $AA(FIRSTROW,FIRSTCOL)/$. The total number of cells returned will be the product of the array lengths used as indices: $NUM1*NUM2 = ANS/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>randi([3 8],1)</t>
+  </si>
+  <si>
+    <t>if NUM1==1, ord1 = ordinal_string(row_vec); else, ord1 = [strjoin(cellstr(ordinal_string(row_vec(1:end-1))),', ') ' and ' ordinal_string(row_vec(end))]; end</t>
+  </si>
+  <si>
+    <t>if NUM2==1, ord2 = ordinal_string(col_vec); else, ord2 = [strjoin(cellstr(ordinal_string(col_vec(1:end-1))),', ') ' and ' ordinal_string(col_vec(end))]; end</t>
+  </si>
+  <si>
+    <t>if strcmp('CHOICE','rows'), answer = NUM1; else, answer = NUM2; end</t>
+  </si>
+  <si>
+    <t>cell34</t>
+  </si>
+  <si>
+    <t>Given a cell array named $AA/$ with RR rows and CC columns, if you set $BB = AA(IND1,IND2)/$, how many CHOICE are in $BB/$?</t>
+  </si>
+  <si>
+    <t>The command $AA(IND1,IND2)/$ uses arrays as indices, which allows you to extract multiple cells from $AA/$ at the same time. In this case, the first index is $IND1/$, which refers to the ORD1 row(s), while the second index $IND2/$ refers to the ORD2 column(s). Since $IND1/$ has length NUM1 and $IND2/$ has length NUM2, then the cell array $BB/$ will have NUM1 row(s) and NUM2 column(s). Since the question asked for the number of CHOICE, the answer is $ANS/$.</t>
+  </si>
+  <si>
+    <t>cell35</t>
+  </si>
+  <si>
+    <t>WORD_IND</t>
+  </si>
+  <si>
+    <t>':|(1\s*:\s*end)'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if WORD_IND==1, inner='\s*CELL_IND\s*,\s*COLON\s*'; else, inner = '\s*COLON\s*,\s*CELL_IND\s*'; end </t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>ORD_STR</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Given a cell array named $AA/$, write a command that would return all the cells in the ORD_STR CHOICE of $AA/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>extract({'row','column'},WORD_IND)</t>
+  </si>
+  <si>
+    <t>if WORD_IND==1, ref = 'CELL_IND,:'; else, ref = ':,CELL_IND'; end</t>
+  </si>
+  <si>
+    <t>['AA\s*\(' inner '\)\s*;?']</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+This question asks for a command that would return a piece of a cell array. The notation to do this is the exact same as with numeric arrays. Therefore, to return the ORD_STR CHOICE of $AA/$, you can use a a colon $:/$ to return the entire CHOICE. For example:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$AA(REF)/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+You could also use $1:end/$ instead of $:/$, but it is unnecessary. If you instead used curly braces $AA{REF}/$, the contents of each cell in the ORD_STR CHOICE would be returned one at a time, i.e. the contents would not be grouped together in a cell array. It is a still a valid statement, but often not as useful.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cell36</t>
+  </si>
+  <si>
+    <t>[answers,correctness,problem_values,explanation] = cell36();</t>
+  </si>
+  <si>
+    <t>NROW</t>
+  </si>
+  <si>
+    <t>EXAMPLE1</t>
+  </si>
+  <si>
+    <t>EXAMPLE2</t>
+  </si>
+  <si>
+    <t>EXAMPLE3</t>
+  </si>
+  <si>
+    <t>EXAMPLE4</t>
+  </si>
+  <si>
+    <t>problem_values{4}(1)</t>
+  </si>
+  <si>
+    <t>problem_values{4}(2)</t>
+  </si>
+  <si>
+    <t>problem_values{4}(3)</t>
+  </si>
+  <si>
+    <t>problem_values{4}(4)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Given a cell array named $myArray/$ with NROW rows and NCOL columns, which command(s) would return all the cells in the ORD CHOICE of $myArray/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>if strcmp('CHOICE','row'), phrase = 'NCOL columns'; else, phrase = 'NROW rows'; end</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+This question asks for a command that would return a piece of a cell array. The notation to do this is the exact same as with numeric arrays. Therefore, to return the ORD CHOICE of $myArray/$, you can use several methods to return the entire CHOICE. For example, EXAMPLE1 or EXAMPLE2 would return the entire CHOICE regardless of the size of $myArray/$. Since $myArray/$ has PHRASE, you could also use EXAMPLE3 or EXAMPLE4.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The correct choices are therefore:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+EXPLAIN
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The other choices are incorrect because they either return the wrong piece or use curly braces instead of parentheses. Curly braces will return the contents of the cells and not the cells themselves.
 &lt;/p&gt;</t>
   </si>
 </sst>
@@ -2921,8 +4164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1857D1-1B9B-4FBB-8C88-F9528ED99766}">
   <dimension ref="A1:G475"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="A255" sqref="A255:E272"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8667,8 +9910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A1CCC8-663D-4FFC-B9F4-AFA5CE4136BE}">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:C107"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9888,10 +11131,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99C37B0-C074-453E-871D-6A511B21862F}">
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D113" activeCellId="1" sqref="D111 D113"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11088,7 +12331,7 @@
         <v>78</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E101" s="27" t="s">
         <v>395</v>
@@ -11103,7 +12346,7 @@
         <v>80</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E102" s="27" t="s">
         <v>397</v>
@@ -11118,7 +12361,7 @@
         <v>82</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E103" s="27" t="s">
         <v>399</v>
@@ -11133,7 +12376,7 @@
         <v>84</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E104" s="27" t="s">
         <v>401</v>
@@ -11148,7 +12391,7 @@
         <v>330</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E105" s="27" t="s">
         <v>403</v>
@@ -11338,7 +12581,7 @@
         <v>78</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E122" s="4" t="b">
         <v>1</v>
@@ -11352,7 +12595,7 @@
         <v>80</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E123" s="4" t="b">
         <v>1</v>
@@ -11531,7 +12774,7 @@
         <v>78</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E139" s="4" t="b">
         <v>1</v>
@@ -11545,7 +12788,7 @@
         <v>80</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E140" s="4" t="b">
         <v>1</v>
@@ -11857,7 +13100,7 @@
         <v>39</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>68</v>
+        <v>901</v>
       </c>
       <c r="E169" s="4" t="b">
         <v>1</v>
@@ -12165,7 +13408,7 @@
         <v>39</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>68</v>
+        <v>901</v>
       </c>
       <c r="E198" s="4" t="b">
         <v>1</v>
@@ -12209,6 +13452,587 @@
         <v>44</v>
       </c>
       <c r="C203" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B205" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B207" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B208" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B209" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B210" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B211" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D212" s="18" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B213" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D213" s="18" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B214" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E214" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B215" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E215" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B216" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E216" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B217" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E217" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B218" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E218" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="267.75" x14ac:dyDescent="0.2">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="6"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="24"/>
+      <c r="B220" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C220" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="D220" s="24"/>
+      <c r="E220" s="24"/>
+    </row>
+    <row r="221" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="10"/>
+      <c r="B221" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C221" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+    </row>
+    <row r="222" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B223" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B224" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B225" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B226" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B227" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B228" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B229" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B230" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B231" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B232" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B233" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B234" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B235" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C235" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B236" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E236" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B237" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E237" s="27" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B238" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E238" s="27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B239" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E239" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B240" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E240" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="B241" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B242" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C242" s="29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C243" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B245" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B246" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B247" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B248" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B249" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B250" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B251" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C251" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B252" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C252" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="B253" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B254" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C254" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C255" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12220,10 +14044,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3809CDA-EBD7-4FFA-9CAD-F80442A2CEED}">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12374,7 +14198,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>639</v>
+        <v>681</v>
       </c>
       <c r="E13" s="4" t="b">
         <v>1</v>
@@ -12619,7 +14443,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>639</v>
+        <v>914</v>
       </c>
       <c r="E36" s="4" t="b">
         <v>1</v>
@@ -12842,7 +14666,7 @@
         <v>39</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>639</v>
+        <v>914</v>
       </c>
       <c r="E57" s="4" t="b">
         <v>1</v>
@@ -13065,7 +14889,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>692</v>
+        <v>915</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
@@ -13076,7 +14900,7 @@
         <v>11</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
@@ -13131,7 +14955,7 @@
         <v>39</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>681</v>
+        <v>751</v>
       </c>
       <c r="E84" s="4" t="b">
         <v>1</v>
@@ -13142,7 +14966,7 @@
         <v>45</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -13171,13 +14995,13 @@
     </row>
     <row r="89" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -13254,7 +15078,7 @@
         <v>419</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
@@ -13287,7 +15111,7 @@
         <v>674</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
@@ -13298,7 +15122,7 @@
         <v>679</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
@@ -13364,7 +15188,7 @@
         <v>11</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.2">
@@ -13375,7 +15199,7 @@
         <v>11</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
@@ -13397,7 +15221,7 @@
         <v>11</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.2">
@@ -13408,7 +15232,7 @@
         <v>11</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.2">
@@ -13430,7 +15254,7 @@
         <v>11</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -13441,7 +15265,7 @@
         <v>11</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -13463,7 +15287,7 @@
         <v>39</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>681</v>
+        <v>751</v>
       </c>
       <c r="E115" s="4" t="b">
         <v>1</v>
@@ -13474,7 +15298,7 @@
         <v>45</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -13503,13 +15327,13 @@
     </row>
     <row r="120" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -13517,10 +15341,10 @@
         <v>2</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>336</v>
+        <v>11</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>684</v>
+        <v>711</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -13531,7 +15355,7 @@
         <v>3</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>338</v>
+        <v>712</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -13542,7 +15366,7 @@
         <v>292</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>339</v>
+        <v>714</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -13553,7 +15377,7 @@
         <v>98</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>350</v>
+        <v>713</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -13561,10 +15385,10 @@
         <v>2</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>501</v>
+        <v>578</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -13572,10 +15396,10 @@
         <v>2</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>11</v>
+        <v>722</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>708</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -13583,10 +15407,10 @@
         <v>2</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>11</v>
+        <v>719</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -13594,207 +15418,5610 @@
         <v>2</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>268</v>
+        <v>720</v>
       </c>
       <c r="D128" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="D130" s="4" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="E136" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="D131" s="4" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C132" s="12" t="s">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134" s="12" t="s">
+      <c r="D150" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="D135" s="4" t="s">
+      <c r="D151" s="4" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C136" s="4" t="s">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" s="4" t="s">
+      <c r="D153" s="4" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C139" s="4" t="s">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D155" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C141" s="4" t="s">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="4" t="s">
+      <c r="D157" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C158" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="E142" s="4" t="b">
+      <c r="D158" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="E158" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:5" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="B143" s="1" t="s">
+    <row r="159" spans="2:5" ht="267.75" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C143" s="21" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="1" t="s">
+      <c r="C159" s="21" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B145" s="1" t="s">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B161" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C161" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="10" t="s">
+    <row r="162" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C146" s="28" t="b">
+      <c r="C162" s="28" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99631B9-D9E9-4E65-BEFA-286507439774}">
+  <dimension ref="A1:E221"/>
+  <sheetViews>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="94.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="E27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E31" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="B32" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="E53" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="E54" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="B55" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="E79" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E80" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E83" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="B84" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>801</v>
+      </c>
+      <c r="D84" s="15"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="15"/>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" s="17"/>
+    </row>
+    <row r="87" spans="1:5" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E101" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E102" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="B103" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>815</v>
+      </c>
+      <c r="D103" s="15"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="15"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" s="15"/>
+    </row>
+    <row r="106" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" s="17"/>
+    </row>
+    <row r="107" spans="1:5" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B149" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="E157" s="19"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="D162" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B166" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D170" s="18" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E171" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E172" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="B173" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="D173" s="15"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B174" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D174" s="15"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C175" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D175" s="15"/>
+    </row>
+    <row r="176" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C176" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D176" s="17"/>
+    </row>
+    <row r="177" spans="1:5" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="19"/>
+      <c r="B182" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="E182" s="19"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B184" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B185" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B186" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B187" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B188" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B190" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="D190" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B193" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B194" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B195" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B196" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B197" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D197" s="18" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B198" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B199" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B200" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B201" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B202" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B203" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B204" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B205" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B206" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B207" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B208" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B209" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B210" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B211" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B213" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B214" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B215" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B216" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B217" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B218" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="B219" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B220" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C221" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03573DE7-FA0C-474B-B66E-2AD9A3986D0A}">
+  <dimension ref="A1:F249"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="E239" sqref="E239"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="93.42578125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="382.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E29" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="E46" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="E47" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="B48" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B50" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="E61" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="E62" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="B63" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B65" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="E73" s="19"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="E81" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="E82" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B83" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B85" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="E92" s="19"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="19"/>
+      <c r="B93" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="E93" s="19"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="19"/>
+      <c r="B94" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="E94" s="19"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="19"/>
+      <c r="B95" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="E95" s="19"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="19"/>
+      <c r="B96" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="E96" s="19"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="E108" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="E109" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B110" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B112" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="E127" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E128" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E129" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E130" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E131" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="B132" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="E148" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E149" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E150" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E151" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E152" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="B153" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C155" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="3"/>
+      <c r="B157" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="3"/>
+      <c r="B158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="3"/>
+      <c r="B159" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="3"/>
+      <c r="B160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="3"/>
+      <c r="B161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="3"/>
+      <c r="B162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="3"/>
+      <c r="B163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="3"/>
+      <c r="B164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="3"/>
+      <c r="B165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="3"/>
+      <c r="B166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="3"/>
+      <c r="B167" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="3"/>
+      <c r="B168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="3"/>
+      <c r="B169" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="3"/>
+      <c r="B170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="3"/>
+      <c r="B171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="3"/>
+      <c r="B172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="3"/>
+      <c r="B173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="3"/>
+      <c r="B174" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E174" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A175" s="3"/>
+      <c r="B175" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="3"/>
+      <c r="B176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D176" s="1"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="9"/>
+      <c r="B177" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C177" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D177" s="10"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="17"/>
+    </row>
+    <row r="178" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="3"/>
+      <c r="B179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="3"/>
+      <c r="B180" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="3"/>
+      <c r="B181" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="3"/>
+      <c r="B182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="3"/>
+      <c r="B183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="3"/>
+      <c r="B184" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="3"/>
+      <c r="B185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="3"/>
+      <c r="B186" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="3"/>
+      <c r="B187" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="3"/>
+      <c r="B188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="3"/>
+      <c r="B189" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="3"/>
+      <c r="B190" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="3"/>
+      <c r="B191" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="3"/>
+      <c r="B192" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="3"/>
+      <c r="B193" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="3"/>
+      <c r="B194" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="3"/>
+      <c r="B195" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="3"/>
+      <c r="B196" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="3"/>
+      <c r="B197" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E197" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A198" s="3"/>
+      <c r="B198" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="3"/>
+      <c r="B199" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D199" s="1"/>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="9"/>
+      <c r="B200" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C200" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D200" s="10"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="17"/>
+    </row>
+    <row r="201" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B202" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B203" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B204" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B205" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B206" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B207" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B208" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B209" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B210" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B211" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="E212" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="B213" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C213" s="21" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B214" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B215" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C215" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B216" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C216" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C217" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B219" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B220" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B221" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B222" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B223" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B224" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B225" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B226" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B227" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B228" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B229" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B230" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B231" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B232" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B233" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B234" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B235" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B236" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B237" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B238" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B239" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B240" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B241" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B242" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B243" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B244" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B245" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B246" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="B247" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C247" s="21" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B248" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B249" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C249" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1D4546-A249-41C9-8A27-1F475BBFF37B}">
   <dimension ref="A1:E25"/>
   <sheetViews>

--- a/matlab_attempt/Excel problems/Arrays2 questions.xlsx
+++ b/matlab_attempt/Excel problems/Arrays2 questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6401AE31-8553-4F22-88A9-2B8C4C427CC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A8015F37-77DA-483F-B318-4B5A2E618961}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="5" xr2:uid="{36AC9E5E-37B1-4621-9112-0A7D41977D5C}"/>
   </bookViews>

--- a/matlab_attempt/Excel problems/Arrays2 questions.xlsx
+++ b/matlab_attempt/Excel problems/Arrays2 questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A8015F37-77DA-483F-B318-4B5A2E618961}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E131EAD8-E66B-49E7-A2BD-3B4625073803}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="5" xr2:uid="{36AC9E5E-37B1-4621-9112-0A7D41977D5C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="7" xr2:uid="{36AC9E5E-37B1-4621-9112-0A7D41977D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="CG6.1.1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
     <sheet name="CG6.1.4" sheetId="5" r:id="rId4"/>
     <sheet name="CG6.1.5" sheetId="6" r:id="rId5"/>
     <sheet name="CG6.1.6" sheetId="7" r:id="rId6"/>
-    <sheet name="Doesn't work" sheetId="3" r:id="rId7"/>
+    <sheet name="CG6.1.7" sheetId="8" r:id="rId7"/>
+    <sheet name="CG6.2.1" sheetId="9" r:id="rId8"/>
+    <sheet name="Doesn't work" sheetId="3" r:id="rId9"/>
+    <sheet name="Not used" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4047" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4666" uniqueCount="1135">
   <si>
     <t>questionText</t>
   </si>
@@ -3668,6 +3671,496 @@
 &lt;p&gt;
 The other choices are incorrect because they either return the wrong piece or use curly braces instead of parentheses. Curly braces will return the contents of the cells and not the cells themselves.
 &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>struct1</t>
+  </si>
+  <si>
+    <t>STRUCT_NAME</t>
+  </si>
+  <si>
+    <t>randsample({'S','S1','myStruct','myStructure','myStruct1','myS','s','my_struct','my_structure1','my_struct1','s1'},1)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Given a structure named $STRUCT_NAME/$, write the command that would return the value in a field named $FIELD_NAME/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>randsample({'field1','field2','newField','age','height','eyeColor','hairColor','firstName','lastName','name'},1)</t>
+  </si>
+  <si>
+    <t>FIELD_NAME</t>
+  </si>
+  <si>
+    <t>'((\s*\(\s*1\s*\)\s*)|(\s*\(\s*1\s*,\s*1\s*\)\s*))?'</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+To access the field in a structure, you use the "dot" notation, e.g. $STRUCT_NAME.FIELD_NAME/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+When referencing a single structure in an array, you need to include an index, e.g. $STRUCT_NAME(1).FIELD_NAME/$. However, this question didn't specify, so $STRUCT_NAME.FIELD_NAME/$ is acceptable. 
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>struct2</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Given a structure named $STRUCT_NAME/$, write the command that would store the number $VALUE/$ in a field named $FIELD_NAME/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>randsample({'field1','field2','newField','age','height','variable1','mass','var1','field3','val1'},1)</t>
+  </si>
+  <si>
+    <t>'STRUCT_NAMEONE.FIELD_NAMEONE\s*;?'</t>
+  </si>
+  <si>
+    <t>'STRUCT_NAMEONE.FIELD_NAMEONE\s*=\s*VALUE\s*;?'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+To store something into a structure field, you use the "dot" notation, e.g. $STRUCT_NAME.FIELD_NAME = VALUE/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+When storing into a single structure in an array, you need to include an index, e.g. $STRUCT_NAME(1).FIELD_NAME = VALUE/$. However, this question didn't specify, so $STRUCT_NAME.FIELD_NAME = VALUE/$ is acceptable. 
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>struct3</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Given a structure named $STRUCT_NAME/$, which command would store the number $VALUE/$ in a field named $FIELD_NAME/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[correct,incorrect,problem_values,explanation] = struct3();</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+To store something into a structure field, you use the "dot" notation with a period separating the structure name and the field name. The correct way to store the number $VALUE/$ in a field named $FIELD_NAME/$ is:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$STRUCT_NAME.FIELD_NAME = VALUE/$$
+&lt;/p&gt;
+EXPLAIN</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Given a structure named $STRUCT_NAME/$, which command would return the value in a field named $FIELD_NAME/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>struct4</t>
+  </si>
+  <si>
+    <t>[correct,incorrect,problem_values,explanation] = struct4();</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+To return something from a structure field, you use the "dot" notation with a period separating the structure name and the field name. The correct way to return the value in $FIELD_NAME/$ from $STRUCT_NAME/$ is:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$STRUCT_NAME.FIELD_NAME/$$
+&lt;/p&gt;
+EXPLAIN</t>
+  </si>
+  <si>
+    <t>struct5</t>
+  </si>
+  <si>
+    <t>[answer,problem_values,explanation] = struct5();</t>
+  </si>
+  <si>
+    <t>NAME1</t>
+  </si>
+  <si>
+    <t>NAME2</t>
+  </si>
+  <si>
+    <t>NFIELD1</t>
+  </si>
+  <si>
+    <t>NFIELD2</t>
+  </si>
+  <si>
+    <t>SNIPPET</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code.
+&lt;/p&gt;
+&lt;p&gt;
+SNIPPET
+&lt;/p&gt;
+&lt;p&gt;
+How many fields are defined for the structure named $ASK/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The code snippet creates two structures named $NAME1/$ and $NAME2/$. There are multiple lines that use the "dot" notation to create fields. For example, $NAME1.pet = 'dog'/$ would create a field named $pet/$ with the value $'dog'/$. 
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The code snippet above defines NFIELD1 fieldADD1 for $NAME1/$ and NFIELD2 fieldADD2 for $NAME2/$. Since this question asks about the structure $ASK/$, the correct answer is $ANS/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>ADD1</t>
+  </si>
+  <si>
+    <t>extract({'','s'},(NFIELD2&gt;1)+1)</t>
+  </si>
+  <si>
+    <t>extract({'','s'},(NFIELD1&gt;1)+1)</t>
+  </si>
+  <si>
+    <t>ADD2</t>
+  </si>
+  <si>
+    <t>struct6</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>MAX_FIELD</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code that creates an array of structures.
+&lt;/p&gt;
+&lt;p&gt;
+SNIPPET
+&lt;/p&gt;
+&lt;p&gt;
+How many structures are created? In other words, what is $length(myStruct)/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4 12] </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Structures can be placed into arrays just like numbers, characters, or cells. They are indexed in the same way, e.g. $myStruct(2)/$ would reference the 2nd structure in an array named $myStruct/$. A line like $myStruct(3).pet = 'dog'/$ would create a field named $pet/$ with the value $'dog'/$ in the the 3rd structure. The 1st and 2nd structures would have also have the $pet/$ field, but those fields will be empty.  
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The code snippet above places several fields into different structures of the array $myStruct/$. You can tell the length of $myStruct/$ by looking for the maximum index used in the snippet. In this case, the maximum index is $ANS/$, since a field is assigned for $myStruct(ANS)/$. It does not matter that some indexes are skipped, meaning some structures have no fields assigned. Those structures will still be created, they will simply have all empty fields.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore, there are $ANS/$ structures created.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>struct7</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code that creates an array of structures.
+&lt;/p&gt;
+&lt;p&gt;
+SNIPPET
+&lt;/p&gt;
+&lt;p&gt;
+How many fields does $myStruct(IND)/$ have?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>FRAC_RM</t>
+  </si>
+  <si>
+    <t>[snippet,num_struct] = struct6('array_range',RANGE,'max_fields',MAX_FIELD,'frac_remove',FRAC_RM);</t>
+  </si>
+  <si>
+    <t>num_struct</t>
+  </si>
+  <si>
+    <t>snippet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4 8] </t>
+  </si>
+  <si>
+    <t>randsample(find(fields_per_struct&gt;0),1)</t>
+  </si>
+  <si>
+    <t>FIELD_STR</t>
+  </si>
+  <si>
+    <t>length(all_fields)</t>
+  </si>
+  <si>
+    <t>[snippet,~,fields_per_struct,all_fields] = struct6('array_range',RANGE,'max_fields',MAX_FIELD,'frac_remove',FRAC_RM);</t>
+  </si>
+  <si>
+    <t>['$' strjoin(all_fields(1:end-1),'/$, $') '/$ and $' all_fields{end} '/$']</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Structures can be placed into arrays just like numbers, characters, or cells. They are indexed in the same way, e.g. $myStruct(2)/$ would reference the 2nd structure in an array named $myStruct/$. A line like $myStruct(3).pet = 'dog'/$ would create a field named $pet/$ with the value $'dog'/$ in the the 3rd structure. The 1st and 2nd structures would have also have the $pet/$ field, but those fields will be empty.  
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The code snippet above places several fields into different structures of the array $myStruct/$. Any time a field is assigned, that field will be created for every structure in the array; it will simply be empty for non-assigned structures. Therefore, to determine the total number of fields for $myStruct(IND)/$, you need to count the total number of unique fields assigned.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+In this code snippet, there are $ANS/$ fields assigned: FIELD_STR. The structure $myStruct(IND)/$ will have all these fields, even though some might be empty.  
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore, $myStruct(IND)/$ has $ANS/$ fields.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>struct8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2 2] </t>
+  </si>
+  <si>
+    <t>[2 4]</t>
+  </si>
+  <si>
+    <t>struct9</t>
+  </si>
+  <si>
+    <t>NALL</t>
+  </si>
+  <si>
+    <t>fields_per_struct(IND)</t>
+  </si>
+  <si>
+    <t>[2 6]</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Structures can be placed into arrays just like numbers, characters, or cells. They are indexed in the same way, e.g. $myStruct(2)/$ would reference the 2nd structure in an array named $myStruct/$. A line like $myStruct(3).pet = 'dog'/$ would create a field named $pet/$ with the value $'dog'/$ in the the 3rd structure. The 1st and 2nd structures would have also have the $pet/$ field, but those fields will be empty.  
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The code snippet above places several fields into different structures of the array $myStruct/$. Any time a field is assigned, that field will be created for every structure in the array; it will simply be empty for non-assigned structures. Therefore, to determine the total number of non-empty fields for $myStruct(IND)/$, you need to count the number of lines in which fields assigned to $myStruct(IND)/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+In this code snippet, there are a total of $NALL/$ fields assigned: FIELD_STR. Of these, $ANS/$ fields are assigned to $myStruct(IND)/$. Any other fields will be empty.  
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore, $myStruct(IND)/$ has $ANS/$ non-empty fields.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code that creates an array of structures.
+&lt;/p&gt;
+&lt;p&gt;
+SNIPPET
+&lt;/p&gt;
+&lt;p&gt;
+How many &lt;em&gt;non-empty&lt;/em&gt; fields does $myStruct(IND)/$ have?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>struct10</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>VALUES</t>
+  </si>
+  <si>
+    <t>randsample(10,2)</t>
+  </si>
+  <si>
+    <t>extract(VALUES,1)</t>
+  </si>
+  <si>
+    <t>extract(VALUES,2)</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>'STRUCT_NAMEARG.FIELD_NAMEONE\s*;?'</t>
+  </si>
+  <si>
+    <t>'\s*\(\s*IND1\s*,\s*IND2\s*\)\s*'</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Given an array of structures named $STRUCT_NAME/$, write the command that would return the value in a field named $FIELD_NAME/$ from row $IND1/$, column $IND2/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>struct11</t>
+  </si>
+  <si>
+    <t>'\s*\(\s*IND1\s*\)\s*'</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Given an array of structures named $STRUCT_NAME/$, write the command that would return the value in a field named $FIELD_NAME/$ from the ORD1 structure in the array (use linear indexing).
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Given an array of structures named $STRUCT_NAME/$, which command would return the value in a field named $FIELD_NAME/$ from the ORD1 structure in the array.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>struct12</t>
+  </si>
+  <si>
+    <t>[correct,incorrect,problem_values,explanation] = struct12();</t>
+  </si>
+  <si>
+    <t>struct13</t>
+  </si>
+  <si>
+    <t>[correct,incorrect,problem_values,explanation] = struct13();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+To access a field in a structure, you use the "dot" notation, e.g. $STRUCT_NAME.FIELD_NAME/$. However, since $STRUCT_NAME/$ is an array, you need to index the specific struct in row $IND1/$, column $IND2/$ with the command $STRUCT_NAME(IND1,IND2)/$. Parentheses are used since this is indexing an element in the array, just like accessing a single number from a numeric array. The only difference here is that the element in this case is a structure. Putting these together, the full command is:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$STRUCT_NAME(IND1,IND2).FIELD_NAME/$$
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+To access a field in a structure, you use the "dot" notation, e.g. $STRUCT_NAME.FIELD_NAME/$. However, since $STRUCT_NAME/$ is an array, you need to index the specific struct in index $IND1/$ with the command $STRUCT_NAME(IND1)/$. Parentheses are used since this is indexing an element in the array, just like accessing a single number from a numeric array. The only difference here is that the element in this case is a structure. Putting these together, the full command is:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$STRUCT_NAME(IND1).FIELD_NAME/$$
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+To access a field in a structure, you use the "dot" notation, e.g. $STRUCT_NAME.FIELD_NAME/$. However, since $STRUCT_NAME/$ is an array, you need to index the specific struct in index $IND1/$ with the command $STRUCT_NAME(IND1)/$. Parentheses are used since this is indexing an element in the array, just like accessing a single number from a numeric array. The only difference here is that the element in this case is a structure. Putting these together, the full command is:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$STRUCT_NAME(IND1).FIELD_NAME/$$
+&lt;/p&gt;
+EXPLAIN</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+To access a field in a structure, you use the "dot" notation, e.g. $STRUCT_NAME.FIELD_NAME/$. However, since $STRUCT_NAME/$ is an array, you need to index the specific struct in row $IND1/$, column $IND2/$ with the command $STRUCT_NAME(IND1,IND2)/$. Parentheses are used since this is indexing an element in the array, just like accessing a single number from a numeric array. The only difference here is that the element in this case is a structure. Putting these together, the full command is:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$STRUCT_NAME(IND1,IND2).FIELD_NAME/$$
+&lt;/p&gt;
+EXPLAIN</t>
+  </si>
+  <si>
+    <t>struct14</t>
+  </si>
+  <si>
+    <t>randsample({'randomInteger','randomDouble'},1)</t>
+  </si>
+  <si>
+    <t>randi(30,1)</t>
+  </si>
+  <si>
+    <t>myStruct.CHOICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+Download &lt;a href="/static/randomStructIND.mat" target="_blank"&gt;this file&lt;/a&gt; and load it into Matlab. If you are using Matlab Online, you will need to upload the file before loading it. There should now be a variable named $myStruct/$ in the workspace. $myStruct/$ is a structure with some random data in its fields.
+&lt;/p&gt;
+&lt;p&gt;
+What's the value in the field $CHOICE/$?
+&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>num2str(ANS)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+To access a field in a structure, you use the "dot" notation. So to return the data from $myStruct/$ in the field $CHOICE/$, the command is $myStruct.CHOICE/$. You should find that $myStruct.CHOICE/$ has the value $STR/$, so the correct answer is $STR/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>load('Data\randomStructIND.mat','myStruct')</t>
+  </si>
+  <si>
+    <t>randsample({'randomString','randomWord'},1)</t>
+  </si>
+  <si>
+    <t>struct15</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+To access a field in a structure, you use the "dot" notation. So to return the data from $myStruct/$ in the field $CHOICE/$, the command is $myStruct.CHOICE/$. You should find that $myStruct.CHOICE/$ has the string $'ANS1'/$, so the correct answer is $'ANS1'/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Given an array of structures named $STRUCT_NAME/$, which command would return the value in a field named $FIELD_NAME/$ from row $IND1/$, column $IND2/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>struct16</t>
+  </si>
+  <si>
+    <t>STYLE</t>
+  </si>
+  <si>
+    <t>if STYLE==1, field_list = {'field','newField','randomString','randStr','str','myString','myStr'}; end</t>
+  </si>
+  <si>
+    <t>if STYLE==2, struct_list = {'S','my_struct','my_structure','my_array','s','my_data'}; end</t>
+  </si>
+  <si>
+    <t>if STYLE==1, struct_list = {'S','myStruct','myStructure','myArray','s','myData'}; end</t>
+  </si>
+  <si>
+    <t>if STYLE==2, field_list = {'field','new_field','random_string','rand_str','str','my_string','my_str'}; end</t>
+  </si>
+  <si>
+    <t>randsample(struct_list,1)</t>
+  </si>
+  <si>
+    <t>randsample(field_list,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+To store a field in a structure, you use the "dot" notation, e.g. $STRUCT_NAME.FIELD_NAME = 'STRING'/$. However, since $STRUCT_NAME/$ is an array, you need to index the specific struct in row $IND1/$, column $IND2/$ with the command $STRUCT_NAME(IND1,IND2)/$. Parentheses are used since this is indexing an element in the array, just like accessing a single number from a numeric array. The only difference is that the element in this case is a structure. Putting these together, the full command is:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$STRUCT_NAME(IND1,IND2).FIELD_NAME = 'STRING'/$$
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>randsample('a':'z',randi([4 5],1))</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Given an array of structures named $STRUCT_NAME/$, write the command that would store the string $'STRING'/$ in a field named $FIELD_NAME/$ into row $IND1/$, column $IND2/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>textline</t>
+  </si>
+  <si>
+    <t>'STRUCT_NAMEARG.\s*FIELD_NAME\s*=\s*''STRING''\s*;?'</t>
   </si>
 </sst>
 </file>
@@ -4164,8 +4657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1857D1-1B9B-4FBB-8C88-F9528ED99766}">
   <dimension ref="A1:G475"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473"/>
+    <sheetView topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="C454" sqref="C454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9906,11 +10399,23 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EC0784-6329-4C34-A626-3BA96DC7D8E2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A1CCC8-663D-4FFC-B9F4-AFA5CE4136BE}">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A178" workbookViewId="0">
       <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
@@ -11133,7 +11638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99C37B0-C074-453E-871D-6A511B21862F}">
   <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A292" workbookViewId="0">
       <selection activeCell="B35" sqref="B35:C39"/>
     </sheetView>
   </sheetViews>
@@ -14046,7 +14551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3809CDA-EBD7-4FFA-9CAD-F80442A2CEED}">
   <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
@@ -15790,8 +16295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99631B9-D9E9-4E65-BEFA-286507439774}">
   <dimension ref="A1:E221"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="B170" sqref="A170:XFD172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18243,8 +18748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03573DE7-FA0C-474B-B66E-2AD9A3986D0A}">
   <dimension ref="A1:F249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="E239" sqref="E239"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21022,11 +21527,2628 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ABC6F1-B53A-4F71-800C-85B0A26FEF72}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE8B832-9851-4C4F-9DE7-5E000953A1D7}">
+  <dimension ref="A1:E247"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="C235" sqref="C235"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E36" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E40" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E54" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E58" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B59" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E73" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E85" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E99" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="318.75" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E113" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="318.75" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C117" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E128" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="331.5" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E142" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B143" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C146" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C147" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E156" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B157" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C159" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C160" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C161" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" s="19" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D167" s="19" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B174" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E174" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E175" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B176" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E176" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B177" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E177" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E178" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B179" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C181" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B184" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B185" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="19"/>
+      <c r="B186" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D186" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="E186" s="19"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="19"/>
+      <c r="B187" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="E187" s="19"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="19"/>
+      <c r="B188" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D188" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="E188" s="19"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="19"/>
+      <c r="B189" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="E189" s="19"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B190" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B193" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B194" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B195" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E196" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B197" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E197" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E198" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B199" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E199" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B200" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E200" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B201" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B202" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C203" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B205" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B207" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B208" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B209" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B210" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E210" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B211" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C211" s="21" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B213" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C213" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C214" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B216" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B217" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B218" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B219" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B220" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D220" s="18" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B221" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E221" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B222" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E222" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B223" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C223" s="21" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B225" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C225" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C226" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B233" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B234" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B235" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B236" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B237" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B238" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B239" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D239" s="18" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B240" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D240" s="18" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B241" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E241" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B242" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C242" s="21" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B243" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C243" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B244" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B245" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C245" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B246" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C246" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C247" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1D4546-A249-41C9-8A27-1F475BBFF37B}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:E25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/matlab_attempt/Excel problems/Arrays2 questions.xlsx
+++ b/matlab_attempt/Excel problems/Arrays2 questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E131EAD8-E66B-49E7-A2BD-3B4625073803}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7393E82F-0CA4-410C-A641-3CBD172389DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="7" xr2:uid="{36AC9E5E-37B1-4621-9112-0A7D41977D5C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4666" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4904" uniqueCount="1186">
   <si>
     <t>questionText</t>
   </si>
@@ -4161,6 +4161,223 @@
   </si>
   <si>
     <t>'STRUCT_NAMEARG.\s*FIELD_NAME\s*=\s*''STRING''\s*;?'</t>
+  </si>
+  <si>
+    <t>struct17</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code that creates an array of structures.
+&lt;/p&gt;
+&lt;p&gt;
+SNIPPET
+&lt;/p&gt;
+&lt;p&gt;
+What is $length([STRUCT_NAME.FIELD_NAME])/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>output{1}</t>
+  </si>
+  <si>
+    <t>output{2}</t>
+  </si>
+  <si>
+    <t>output{3}</t>
+  </si>
+  <si>
+    <t>output{4}</t>
+  </si>
+  <si>
+    <t>output{5}</t>
+  </si>
+  <si>
+    <t>length(INDEXES)</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Since $STRUCT_NAME/$ is an array, the command $STRUCT_NAME.FIELD_NAME/$ will iteratively output each value assigned to a $FIELD_NAME/$ field. Adding square brackets will join these values together in an array, so $[STRUCT_NAME.FIELD_NAME]/$ will be an array of integers with each value of $FIELD_NAME/$. 
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This snippet of code does not assign a value of $FIELD_NAME/$ for each structure in the array. For example, $STRUCT_NAME(EMPTY).FIELD_NAME/$ is not assigned, so it will be an empty array $[]/$. When Matlab joins together all the values of $FIELD_NAME/$ into an array, these empty arrays do not add anything to the final length of the array. For example, the output of $[0, 0, [], 0]/$ is 1x3 array of zeros.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore, only the assigned values of $FIELD_NAME/$ will be in the array $[STRUCT_NAME.FIELD_NAME]/$. There are $ANS/$ values assigned in to $FIELD_NAME/$, so the length of $[STRUCT_NAME.FIELD_NAME]/$ is $ANS/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>output = struct17('max_lines',15,'range_lines',[4 10],'max_value',100);</t>
+  </si>
+  <si>
+    <t>struct18</t>
+  </si>
+  <si>
+    <t>extract(VALUES,IND)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code that creates an array of structures.
+&lt;/p&gt;
+&lt;p&gt;
+SNIPPET
+&lt;/p&gt;
+&lt;p&gt;
+If you now set $x = [STRUCT_NAME.FIELD_NAME]/$, what is $x(IND)/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>ARRAY</t>
+  </si>
+  <si>
+    <t>mat2string(VALUES)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Since $STRUCT_NAME/$ is an array of structures, the command $STRUCT_NAME.FIELD_NAME/$ will iteratively output each value assigned to a $FIELD_NAME/$ field. Adding square brackets will join these values together in an array, so $x = [STRUCT_NAME.FIELD_NAME]/$ will create an array named $x/$ that has the all the integers in $FIELD_NAME/$ fields. 
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This snippet of code does not assign a value of $FIELD_NAME/$ for each structure in the array. For example, $STRUCT_NAME(EMPTY).FIELD_NAME/$ is not assigned, so it will be an empty array $[]/$. When Matlab joins together all the values of $FIELD_NAME/$ into an array, these empty arrays do not add anything to the final length of the array. For example, the output of $[0, 0, [], 0]/$ is 1x3 array of zeros.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+In other words, the line $x = [STRUCT_NAME.FIELD_NAME]/$ will only assign the filled values of $FIELD_NAME/$ into $x/$, i.e. the values $ARRAY/$. The statement $x(IND)/$ will return the ORD value in this array: $ANS/$. Therefore, the answer is $ANS/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code that creates an array of structures.
+&lt;/p&gt;
+&lt;p&gt;
+SNIPPET
+&lt;/p&gt;
+&lt;p&gt;
+What is $length({STRUCT_NAME.FIELD_NAME})/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>struct19</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Since $STRUCT_NAME/$ is an array, the command $STRUCT_NAME.FIELD_NAME/$ will iteratively output each string assigned to a $FIELD_NAME/$ field. Adding curly braces will join these values together in a cell array, so ${STRUCT_NAME.FIELD_NAME}/$ will be a cell array of strings that has each value of $FIELD_NAME/$. 
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This snippet of code does not assign a string to $FIELD_NAME/$ for each structure in the array. For example, $STRUCT_NAME(EMPTY).FIELD_NAME/$ is not assigned, so it will be an empty array $[]/$. When Matlab joins together all the values of $FIELD_NAME/$ into an array, these empty arrays &lt;em&gt;do&lt;/em&gt; contribute to the final length of the array. For example, the output of ${'hello', -4.2, [], 'bye'}/$ is 1x4 cell array with an empty array in the 3rd cell.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore, both the filled and empty values of $FIELD_NAME/$ will be in the array ${STRUCT_NAME.FIELD_NAME}/$. The array $STRUCT_NAME/$ has a length of $ANS/$  because a string is assigned to $STRUCT_NAME(ANS)/$, so the length of ${STRUCT_NAME.FIELD_NAME}/$ is $ANS/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>MAX_LINES</t>
+  </si>
+  <si>
+    <t>randi([10 15],1)</t>
+  </si>
+  <si>
+    <t>output = struct17('max_lines',MAX_LINES,'range_lines',[3 8],'do_words',true);</t>
+  </si>
+  <si>
+    <t>max(INDEXES)</t>
+  </si>
+  <si>
+    <t>struct20</t>
+  </si>
+  <si>
+    <t>'The string $''STRING1''/$'</t>
+  </si>
+  <si>
+    <t>'An empty array $[]/$'</t>
+  </si>
+  <si>
+    <t>'The string $''STRING2''/$'</t>
+  </si>
+  <si>
+    <t>EMPTY_IND</t>
+  </si>
+  <si>
+    <t>FILLED_IND1</t>
+  </si>
+  <si>
+    <t>IS_EMPTY</t>
+  </si>
+  <si>
+    <t>rand&lt;0.333</t>
+  </si>
+  <si>
+    <t>ask_ind</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Consider the following snippet of code that creates an array of structures.
+&lt;/p&gt;
+&lt;p&gt;
+SNIPPET
+&lt;/p&gt;
+&lt;p&gt;
+If you now set $x = {STRUCT_NAME.FIELD_NAME}/$, what is $x{ASK_IND}/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>find(~ismember(1:max(INDEXES),INDEXES),1)</t>
+  </si>
+  <si>
+    <t>extract(INDEXES,filled_inds(1))</t>
+  </si>
+  <si>
+    <t>output{5}{filled_inds(1)}</t>
+  </si>
+  <si>
+    <t>output{5}{filled_inds(2)}</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Since $STRUCT_NAME/$ is an array, the command $STRUCT_NAME.FIELD_NAME/$ will iteratively output each string assigned to a $FIELD_NAME/$ field. Adding curly braces will join these values together in a cell array, so $x/$ will be a cell array of strings that has each value of $FIELD_NAME/$. 
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This snippet of code does not assign a string to $FIELD_NAME/$ for each structure in the array. For example, $STRUCT_NAME(EMPTY_IND).FIELD_NAME/$ is not assigned, so it will be an empty array $[]/$. When Matlab joins together all the values of $FIELD_NAME/$ into a cell array, these empty arrays will be placed into cells. The variable $x/$ will be a 1xLEN cell array containing both strings and empty arrays.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The value stored in $x{ASK_IND}/$ is the same as $STRUCT_NAME(ASK_IND).FIELD_NAME/$. EXPLAIN
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>if IS_EMPTY, explain = 'This is an empty array because a string was not assigned to this field. Therefore, the correct answer is "An empty array $[]/$".'; end</t>
+  </si>
+  <si>
+    <t>randsample(find(~ismember(1:LEN,INDEXES)),1)</t>
+  </si>
+  <si>
+    <t>if ~IS_EMPTY, explain = 'This is the string $''STRING1''/$. Therefore, the correct answer is "The string $''STRING1''/$".'; end</t>
+  </si>
+  <si>
+    <t>'The string $''STRING3''/$'</t>
+  </si>
+  <si>
+    <t>if ~IS_EMPTY, ask_ind = FILLED_IND1; is_correct = convert_logical([1 0 0 0 0]); end</t>
+  </si>
+  <si>
+    <t>if IS_EMPTY, ask_ind = EMPTY_IND; is_correct = convert_logical([0 0 0 1 0]); end</t>
+  </si>
+  <si>
+    <t>output{5}{filled_inds(3)}</t>
+  </si>
+  <si>
+    <t>randi([13 15],1)</t>
+  </si>
+  <si>
+    <t>filled_inds = randsample(1:length(INDEXES),3);</t>
+  </si>
+  <si>
+    <t>C14, C15, C1, C3</t>
+  </si>
+  <si>
+    <t>C14, C15, C3</t>
+  </si>
+  <si>
+    <t>C14, C15</t>
   </si>
 </sst>
 </file>
@@ -4657,7 +4874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1857D1-1B9B-4FBB-8C88-F9528ED99766}">
   <dimension ref="A1:G475"/>
   <sheetViews>
-    <sheetView topLeftCell="A493" workbookViewId="0">
+    <sheetView topLeftCell="A418" workbookViewId="0">
       <selection activeCell="C454" sqref="C454"/>
     </sheetView>
   </sheetViews>
@@ -11638,7 +11855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99C37B0-C074-453E-871D-6A511B21862F}">
   <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView topLeftCell="A292" workbookViewId="0">
+    <sheetView topLeftCell="A211" workbookViewId="0">
       <selection activeCell="B35" sqref="B35:C39"/>
     </sheetView>
   </sheetViews>
@@ -16295,8 +16512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99631B9-D9E9-4E65-BEFA-286507439774}">
   <dimension ref="A1:E221"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="B170" sqref="A170:XFD172"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B195" sqref="A195:XFD199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18748,7 +18965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03573DE7-FA0C-474B-B66E-2AD9A3986D0A}">
   <dimension ref="A1:F249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A238" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C10"/>
     </sheetView>
   </sheetViews>
@@ -21540,10 +21757,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE8B832-9851-4C4F-9DE7-5E000953A1D7}">
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21551,7 +21768,9 @@
     <col min="1" max="1" width="11.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="20.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -24075,7 +24294,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B241" s="4" t="s">
         <v>40</v>
       </c>
@@ -24089,7 +24308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="B242" s="13" t="s">
         <v>45</v>
       </c>
@@ -24097,7 +24316,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B243" s="13" t="s">
         <v>1133</v>
       </c>
@@ -24105,7 +24324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B244" s="16" t="s">
         <v>42</v>
       </c>
@@ -24113,7 +24332,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B245" s="16" t="s">
         <v>110</v>
       </c>
@@ -24121,7 +24340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B246" s="16" t="s">
         <v>111</v>
       </c>
@@ -24129,11 +24348,925 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B247" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C247" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B249" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B250" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B251" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B252" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B253" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B254" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B255" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B256" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B257" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E257" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="B258" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C258" s="21" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B259" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B260" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C260" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C261" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B263" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B264" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B265" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B266" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B267" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B268" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B269" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B270" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B271" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B272" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B273" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B274" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B275" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E275" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="B276" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C276" s="21" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B277" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B278" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C278" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C279" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B281" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B282" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B283" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B284" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B285" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B286" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B287" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B288" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B289" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D289" s="18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E289" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="318.75" x14ac:dyDescent="0.2">
+      <c r="B290" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C290" s="21" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B291" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B292" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C292" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C293" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A294" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B295" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B296" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B297" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B298" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B299" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B300" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B301" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B302" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B303" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B304" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B305" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B306" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B307" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B308" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B309" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B310" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B311" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B312" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B313" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B314" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B315" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B316" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B317" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D317" s="18" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B318" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D318" s="18" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B319" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D319" s="18" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B320" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D320" s="18" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B321" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D321" s="18" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B322" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D322" s="18" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B323" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" s="18" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B324" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D324" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B325" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D325" s="18" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B326" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D326" s="18" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B327" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D327" s="18" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B328" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D328" s="18" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B329" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D329" s="18" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="B330" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C330" s="21" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B331" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C332" s="28" t="b">
         <v>1</v>
       </c>
     </row>

--- a/matlab_attempt/Excel problems/Arrays2 questions.xlsx
+++ b/matlab_attempt/Excel problems/Arrays2 questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EE6A54-F396-48F0-B51D-6A4E54CD12D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65DF845-40DB-446C-84C3-EC2A4BEB9112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{36AC9E5E-37B1-4621-9112-0A7D41977D5C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="6" xr2:uid="{36AC9E5E-37B1-4621-9112-0A7D41977D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="CG6.1.1" sheetId="1" r:id="rId1"/>
@@ -5166,8 +5166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1857D1-1B9B-4FBB-8C88-F9528ED99766}">
   <dimension ref="A1:G476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="C293" sqref="C293"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22116,7 +22116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE8B832-9851-4C4F-9DE7-5E000953A1D7}">
   <dimension ref="A1:E475"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
       <selection activeCell="B372" sqref="B372"/>
     </sheetView>
   </sheetViews>
